--- a/src/data/AlamasChemicalProducts.xlsx
+++ b/src/data/AlamasChemicalProducts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rendiero25\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AlamasWebsite\alamas-website\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C82315F-910D-4696-9479-9DE1F4A64E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452BA921-A653-4F19-967C-6E49A4271FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF139925-314B-41C8-BEF1-690B85846A6A}"/>
+    <workbookView xWindow="1965" yWindow="-12990" windowWidth="25335" windowHeight="11835" xr2:uid="{FF139925-314B-41C8-BEF1-690B85846A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -322,10 +321,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -335,15 +341,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,7 +661,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D14" sqref="D14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -679,276 +678,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="10"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="10"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="10"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="10"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -959,11 +958,11 @@
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="C15:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
